--- a/Opdracht/APO/BugReport_TomVer.xlsx
+++ b/Opdracht/APO/BugReport_TomVer.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="18">
   <si>
     <t>Omschrijving:</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Kan de voorspelling niet aanpassen en het  begind al met een voorspelling.</t>
+  </si>
+  <si>
+    <t>Wanneer er geregistreerd wordt krijg je geen melding van registratie</t>
   </si>
 </sst>
 </file>
@@ -748,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1280,7 +1283,9 @@
       <c r="J21" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K21" s="19"/>
+      <c r="K21" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="L21" s="19"/>
       <c r="M21" s="19"/>
       <c r="N21" s="20"/>
@@ -1343,7 +1348,7 @@
         <v>8</v>
       </c>
       <c r="K23" s="21" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L23" s="21"/>
       <c r="M23" s="5"/>
@@ -1401,7 +1406,9 @@
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
       <c r="G25" s="25"/>
-      <c r="J25" s="23"/>
+      <c r="J25" s="23" t="s">
+        <v>17</v>
+      </c>
       <c r="K25" s="24"/>
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>

--- a/Opdracht/APO/BugReport_TomVer.xlsx
+++ b/Opdracht/APO/BugReport_TomVer.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="22">
   <si>
     <t>Omschrijving:</t>
   </si>
@@ -71,6 +71,25 @@
   <si>
     <t>Wanneer er geregistreerd wordt krijg je geen melding van registratie</t>
   </si>
+  <si>
+    <t>Jits Buijs</t>
+  </si>
+  <si>
+    <t>Design Flaw</t>
+  </si>
+  <si>
+    <t>Zodra je op "Register" drukt bij het aanmeldscherm krijg je meteen de melding "
+Both fields are required".
+ Mijn verwachtingen waren dat je naar een nieuwe form verwezen werd 
+waar je je kon registreren, dat is naar mijn mening gebruikersvriendelijker.
+ Ook de melding "Both fields are required" zijn vrij algemeen, Prettiger zou 
+zijn als aangegeven welke velden verreist zijn</t>
+  </si>
+  <si>
+    <t>Vlak na het drukken van "Registreren" gebeurt er niets. 
+Wanhopige ik drukt er nog maals op en krijgt de melding 
+"This user already exists."</t>
+  </si>
 </sst>
 </file>
 
@@ -374,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -449,6 +468,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -751,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:W1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -789,7 +811,9 @@
       <c r="S1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="19"/>
+      <c r="T1" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="U1" s="19"/>
       <c r="V1" s="19"/>
       <c r="W1" s="20"/>
@@ -822,7 +846,9 @@
       <c r="S2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="22"/>
+      <c r="T2" s="34">
+        <v>41979</v>
+      </c>
       <c r="U2" s="22"/>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
@@ -856,7 +882,7 @@
         <v>8</v>
       </c>
       <c r="T3" s="21" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="U3" s="21"/>
       <c r="V3" s="5"/>
@@ -912,7 +938,9 @@
       <c r="N5" s="24"/>
       <c r="O5" s="24"/>
       <c r="P5" s="25"/>
-      <c r="S5" s="23"/>
+      <c r="S5" s="35" t="s">
+        <v>20</v>
+      </c>
       <c r="T5" s="24"/>
       <c r="U5" s="24"/>
       <c r="V5" s="24"/>
@@ -1294,7 +1322,9 @@
       <c r="S21" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="T21" s="19"/>
+      <c r="T21" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="U21" s="19"/>
       <c r="V21" s="19"/>
       <c r="W21" s="20"/>
@@ -1325,7 +1355,9 @@
       <c r="S22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="T22" s="22"/>
+      <c r="T22" s="34">
+        <v>41977</v>
+      </c>
       <c r="U22" s="22"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
@@ -1359,7 +1391,7 @@
         <v>8</v>
       </c>
       <c r="T23" s="21" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="U23" s="21"/>
       <c r="V23" s="5"/>
@@ -1415,7 +1447,9 @@
       <c r="N25" s="24"/>
       <c r="O25" s="24"/>
       <c r="P25" s="25"/>
-      <c r="S25" s="23"/>
+      <c r="S25" s="35" t="s">
+        <v>21</v>
+      </c>
       <c r="T25" s="24"/>
       <c r="U25" s="24"/>
       <c r="V25" s="24"/>
@@ -2852,6 +2886,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
